--- a/data/pca/factorExposure/factorExposure_2018-10-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.05218396814797854</v>
+        <v>-0.04067579004887353</v>
       </c>
       <c r="C2">
-        <v>0.06729143306560996</v>
+        <v>0.001196109953626546</v>
       </c>
       <c r="D2">
-        <v>0.04683238231714214</v>
+        <v>0.01553152456490035</v>
       </c>
       <c r="E2">
-        <v>0.06364911311748185</v>
+        <v>-0.01505023356395451</v>
       </c>
       <c r="F2">
-        <v>-0.1502084029753399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.04455048999982927</v>
+      </c>
+      <c r="G2">
+        <v>0.1040911817798014</v>
+      </c>
+      <c r="H2">
+        <v>0.04603462805700908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.153689479031285</v>
+        <v>-0.09442201555748289</v>
       </c>
       <c r="C3">
-        <v>0.03252666299996239</v>
+        <v>-0.04116813644347687</v>
       </c>
       <c r="D3">
-        <v>0.0645812735269964</v>
+        <v>0.04286835561281461</v>
       </c>
       <c r="E3">
-        <v>0.1190266779654765</v>
+        <v>-0.01147880316347704</v>
       </c>
       <c r="F3">
-        <v>-0.3955214351137383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.02260900063666605</v>
+      </c>
+      <c r="G3">
+        <v>0.3418701655599503</v>
+      </c>
+      <c r="H3">
+        <v>0.1524072571048216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05855043616816129</v>
+        <v>-0.05149209469300024</v>
       </c>
       <c r="C4">
-        <v>0.04069276991368319</v>
+        <v>-0.008947169374902154</v>
       </c>
       <c r="D4">
-        <v>0.01995154894644341</v>
+        <v>0.03493789257303551</v>
       </c>
       <c r="E4">
-        <v>0.08407312788655108</v>
+        <v>0.01640388331637049</v>
       </c>
       <c r="F4">
-        <v>-0.05710622026093812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.0666351917493397</v>
+      </c>
+      <c r="G4">
+        <v>0.05403697577286797</v>
+      </c>
+      <c r="H4">
+        <v>0.008070257890432267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.008793275538374536</v>
+        <v>-0.032308055909705</v>
       </c>
       <c r="C6">
-        <v>0.002205069935654249</v>
+        <v>-0.004822222904123577</v>
       </c>
       <c r="D6">
-        <v>0.007712772287815943</v>
+        <v>0.02923676001789536</v>
       </c>
       <c r="E6">
-        <v>-0.0009499228197429655</v>
+        <v>0.002974664970932679</v>
       </c>
       <c r="F6">
-        <v>-0.006185704737961268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03113355664105929</v>
+      </c>
+      <c r="G6">
+        <v>0.01196226634175189</v>
+      </c>
+      <c r="H6">
+        <v>-0.04745517090901665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03104354810849173</v>
+        <v>-0.02567894753541507</v>
       </c>
       <c r="C7">
-        <v>0.02188259178228427</v>
+        <v>-0.004958644084974777</v>
       </c>
       <c r="D7">
-        <v>0.03486161951616559</v>
+        <v>0.01836329532225853</v>
       </c>
       <c r="E7">
-        <v>0.03911620263860804</v>
+        <v>0.03436048872224891</v>
       </c>
       <c r="F7">
-        <v>-0.06027801479574704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.0283906279686168</v>
+      </c>
+      <c r="G7">
+        <v>0.04354730131852293</v>
+      </c>
+      <c r="H7">
+        <v>0.01093877788663325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01725663579825391</v>
+        <v>-0.006018662269937843</v>
       </c>
       <c r="C8">
-        <v>0.01159002666482946</v>
+        <v>-0.003863604384657759</v>
       </c>
       <c r="D8">
-        <v>0.009724330796522525</v>
+        <v>0.02230691790392514</v>
       </c>
       <c r="E8">
-        <v>0.07407748267846979</v>
+        <v>0.01121194116834439</v>
       </c>
       <c r="F8">
-        <v>-0.08866796051579724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03099011575464465</v>
+      </c>
+      <c r="G8">
+        <v>0.06059995200490543</v>
+      </c>
+      <c r="H8">
+        <v>0.03585553428910879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04781382623502446</v>
+        <v>-0.04129720384996319</v>
       </c>
       <c r="C9">
-        <v>0.03455369340966841</v>
+        <v>-0.0107768801759269</v>
       </c>
       <c r="D9">
-        <v>0.003007245958279854</v>
+        <v>0.03019243006705912</v>
       </c>
       <c r="E9">
-        <v>0.08714100548658323</v>
+        <v>0.01665714870574398</v>
       </c>
       <c r="F9">
-        <v>-0.05868820062168129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04643208641888848</v>
+      </c>
+      <c r="G9">
+        <v>0.0724869184201406</v>
+      </c>
+      <c r="H9">
+        <v>0.008132716267876825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04223047182979649</v>
+        <v>-0.06472250580634743</v>
       </c>
       <c r="C10">
-        <v>0.04818574377441105</v>
+        <v>-0.03369672953300878</v>
       </c>
       <c r="D10">
-        <v>-0.05508651388271906</v>
+        <v>-0.1563936048072154</v>
       </c>
       <c r="E10">
-        <v>-0.1450598217720424</v>
+        <v>-0.01644212642010908</v>
       </c>
       <c r="F10">
-        <v>-0.08254237130031755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0813547307659986</v>
+      </c>
+      <c r="G10">
+        <v>0.05246797045591132</v>
+      </c>
+      <c r="H10">
+        <v>0.01310488771579967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03603646638607793</v>
+        <v>-0.02520330236203328</v>
       </c>
       <c r="C11">
-        <v>0.0126701841002427</v>
+        <v>-0.01625379443268522</v>
       </c>
       <c r="D11">
-        <v>0.0217868529243222</v>
+        <v>0.03358907106052396</v>
       </c>
       <c r="E11">
-        <v>0.03579531115096771</v>
+        <v>-0.005032645321560207</v>
       </c>
       <c r="F11">
-        <v>-0.02791421600109315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02650715651060572</v>
+      </c>
+      <c r="G11">
+        <v>0.03908505367820791</v>
+      </c>
+      <c r="H11">
+        <v>-0.006837105470183974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04264969277425106</v>
+        <v>-0.03402255481831414</v>
       </c>
       <c r="C12">
-        <v>0.01368905492545918</v>
+        <v>-0.01614060602568669</v>
       </c>
       <c r="D12">
-        <v>0.01230628622346002</v>
+        <v>0.03276956620609772</v>
       </c>
       <c r="E12">
-        <v>0.04826415111233944</v>
+        <v>0.004995349302419808</v>
       </c>
       <c r="F12">
-        <v>-0.01488321650539613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02767691421607213</v>
+      </c>
+      <c r="G12">
+        <v>0.01096044676809665</v>
+      </c>
+      <c r="H12">
+        <v>-0.001268900575861812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0300433698619718</v>
+        <v>-0.03165526271788842</v>
       </c>
       <c r="C13">
-        <v>0.02685206904360658</v>
+        <v>0.004817859769474665</v>
       </c>
       <c r="D13">
-        <v>0.04045273075576145</v>
+        <v>0.008046886182077349</v>
       </c>
       <c r="E13">
-        <v>0.03150813907451178</v>
+        <v>-0.0162993814301927</v>
       </c>
       <c r="F13">
-        <v>-0.09679518202365832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02834333159303311</v>
+      </c>
+      <c r="G13">
+        <v>0.07855148586477995</v>
+      </c>
+      <c r="H13">
+        <v>0.01560857929250119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01575854762689479</v>
+        <v>-0.01833761214669983</v>
       </c>
       <c r="C14">
-        <v>0.02491762732616471</v>
+        <v>-0.005590729065466369</v>
       </c>
       <c r="D14">
-        <v>0.01317903000042055</v>
+        <v>0.002268945375179607</v>
       </c>
       <c r="E14">
-        <v>0.04331272723202189</v>
+        <v>0.007008742848860591</v>
       </c>
       <c r="F14">
-        <v>-0.05405592492137373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03179344178543255</v>
+      </c>
+      <c r="G14">
+        <v>0.0411235834178198</v>
+      </c>
+      <c r="H14">
+        <v>0.05477450074557611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02861577670659007</v>
+        <v>-0.02507192054542865</v>
       </c>
       <c r="C16">
-        <v>0.01293105938171524</v>
+        <v>-0.0159482469456674</v>
       </c>
       <c r="D16">
-        <v>0.01807341618030902</v>
+        <v>0.0310777241763141</v>
       </c>
       <c r="E16">
-        <v>0.03341223087521986</v>
+        <v>-0.0003334617715003007</v>
       </c>
       <c r="F16">
-        <v>-0.02941718548753485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02619333030458301</v>
+      </c>
+      <c r="G16">
+        <v>0.02875804836090698</v>
+      </c>
+      <c r="H16">
+        <v>-0.003679088018186955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04170635283811722</v>
+        <v>-0.03521525258123868</v>
       </c>
       <c r="C19">
-        <v>0.01482272400134529</v>
+        <v>-0.009106959556733879</v>
       </c>
       <c r="D19">
-        <v>0.03229302569514143</v>
+        <v>0.01785085733016351</v>
       </c>
       <c r="E19">
-        <v>0.0446695590937049</v>
+        <v>-0.004903938528242976</v>
       </c>
       <c r="F19">
-        <v>-0.0923821949295373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03788396138697841</v>
+      </c>
+      <c r="G19">
+        <v>0.08089496562872658</v>
+      </c>
+      <c r="H19">
+        <v>0.01353831286283248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002987119838599385</v>
+        <v>-0.009228161019970893</v>
       </c>
       <c r="C20">
-        <v>0.0198474334626082</v>
+        <v>0.004781825172169894</v>
       </c>
       <c r="D20">
-        <v>0.01947473749581949</v>
+        <v>0.01210532480709779</v>
       </c>
       <c r="E20">
-        <v>0.05550854950833242</v>
+        <v>0.004129894099716694</v>
       </c>
       <c r="F20">
-        <v>-0.06498912455272135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02637158521482101</v>
+      </c>
+      <c r="G20">
+        <v>0.04910800055023302</v>
+      </c>
+      <c r="H20">
+        <v>0.03392569991288453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005427578294026086</v>
+        <v>-0.0234911276716707</v>
       </c>
       <c r="C21">
-        <v>0.00294925946715964</v>
+        <v>0.0007131137114821625</v>
       </c>
       <c r="D21">
-        <v>0.01933671560435345</v>
+        <v>0.001603263685780969</v>
       </c>
       <c r="E21">
-        <v>0.03741781300431644</v>
+        <v>0.01086057107268633</v>
       </c>
       <c r="F21">
-        <v>-0.08477535993867806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01307060996213222</v>
+      </c>
+      <c r="G21">
+        <v>0.06398061970008993</v>
+      </c>
+      <c r="H21">
+        <v>0.01684232746015515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03191526695046126</v>
+        <v>-0.02573013045710294</v>
       </c>
       <c r="C24">
-        <v>0.01097385057030783</v>
+        <v>-0.0112734832277302</v>
       </c>
       <c r="D24">
-        <v>0.0158469168741387</v>
+        <v>0.03146021531301833</v>
       </c>
       <c r="E24">
-        <v>0.03369557396898505</v>
+        <v>1.494122178466827e-05</v>
       </c>
       <c r="F24">
-        <v>-0.03440439777781075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.0232271148301034</v>
+      </c>
+      <c r="G24">
+        <v>0.03241915828996724</v>
+      </c>
+      <c r="H24">
+        <v>-0.01052848157266817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03328437276950817</v>
+        <v>-0.03523595955967329</v>
       </c>
       <c r="C25">
-        <v>0.01250514336972801</v>
+        <v>-0.01125760759719113</v>
       </c>
       <c r="D25">
-        <v>0.012824536769328</v>
+        <v>0.02416656250873069</v>
       </c>
       <c r="E25">
-        <v>0.03683287224735497</v>
+        <v>0.0006198199044096507</v>
       </c>
       <c r="F25">
-        <v>-0.03589264855455731</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02852536780997233</v>
+      </c>
+      <c r="G25">
+        <v>0.03886302158189473</v>
+      </c>
+      <c r="H25">
+        <v>-0.01159061320308812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01951088676889075</v>
+        <v>-0.02176205356646027</v>
       </c>
       <c r="C26">
-        <v>0.003049603514038451</v>
+        <v>0.01353368517177482</v>
       </c>
       <c r="D26">
-        <v>0.04303328906094041</v>
+        <v>0.01147810736421738</v>
       </c>
       <c r="E26">
-        <v>0.04280260760867872</v>
+        <v>-0.005977556885537717</v>
       </c>
       <c r="F26">
-        <v>-0.05557466504106004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01032734842379555</v>
+      </c>
+      <c r="G26">
+        <v>0.04576073661508941</v>
+      </c>
+      <c r="H26">
+        <v>0.03245667891066879</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.08037751446649646</v>
+        <v>-0.03629987312270216</v>
       </c>
       <c r="C27">
-        <v>0.05673980994141514</v>
+        <v>-0.0233938933956662</v>
       </c>
       <c r="D27">
-        <v>0.005468968033414023</v>
+        <v>0.006037433601626332</v>
       </c>
       <c r="E27">
-        <v>0.05409204097678409</v>
+        <v>0.002464507321223978</v>
       </c>
       <c r="F27">
-        <v>-0.05284153821797683</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.03103787329454258</v>
+      </c>
+      <c r="G27">
+        <v>0.03077203818945485</v>
+      </c>
+      <c r="H27">
+        <v>0.02297226809635139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06094503544910497</v>
+        <v>-0.1019200140545479</v>
       </c>
       <c r="C28">
-        <v>0.058582615696496</v>
+        <v>-0.03815599953928512</v>
       </c>
       <c r="D28">
-        <v>-0.09585131606160925</v>
+        <v>-0.2305650454175178</v>
       </c>
       <c r="E28">
-        <v>-0.2171083563301235</v>
+        <v>-0.0181918463830101</v>
       </c>
       <c r="F28">
-        <v>-0.09277653998422349</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1192920781394386</v>
+      </c>
+      <c r="G28">
+        <v>0.03789782592872441</v>
+      </c>
+      <c r="H28">
+        <v>0.03438236749985692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02288701653021273</v>
+        <v>-0.0226587362671843</v>
       </c>
       <c r="C29">
-        <v>0.02367405053495486</v>
+        <v>-0.008069610576749296</v>
       </c>
       <c r="D29">
-        <v>0.01102446429149502</v>
+        <v>0.004848291931318177</v>
       </c>
       <c r="E29">
-        <v>0.05562896134154705</v>
+        <v>0.007320012353186993</v>
       </c>
       <c r="F29">
-        <v>-0.0416351980009363</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03139661291907189</v>
+      </c>
+      <c r="G29">
+        <v>0.03482999893706763</v>
+      </c>
+      <c r="H29">
+        <v>0.05016698019267808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0887025043120985</v>
+        <v>-0.06685662765833077</v>
       </c>
       <c r="C30">
-        <v>0.06065729438122345</v>
+        <v>-0.01644678334073645</v>
       </c>
       <c r="D30">
-        <v>0.05054951301419582</v>
+        <v>0.05008239600514994</v>
       </c>
       <c r="E30">
-        <v>0.07670485427958841</v>
+        <v>-0.0418360714579259</v>
       </c>
       <c r="F30">
-        <v>-0.06777917954187146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07513603431558978</v>
+      </c>
+      <c r="G30">
+        <v>0.08410598068623894</v>
+      </c>
+      <c r="H30">
+        <v>-0.003502917144016693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05718942267476425</v>
+        <v>-0.05225506486141485</v>
       </c>
       <c r="C31">
-        <v>0.01994774547281737</v>
+        <v>-0.02685126005225628</v>
       </c>
       <c r="D31">
-        <v>0.04834481135055534</v>
+        <v>0.01575529409528669</v>
       </c>
       <c r="E31">
-        <v>0.02041385827955777</v>
+        <v>-0.01142094388364361</v>
       </c>
       <c r="F31">
-        <v>-0.02314852948874355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02124847816093951</v>
+      </c>
+      <c r="G31">
+        <v>0.01721967561345912</v>
+      </c>
+      <c r="H31">
+        <v>0.04728225717221313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02401689892268796</v>
+        <v>-0.009958067734679055</v>
       </c>
       <c r="C32">
-        <v>0.02658927635522911</v>
+        <v>-0.01833619355356485</v>
       </c>
       <c r="D32">
-        <v>0.01668368830455429</v>
+        <v>0.008226612761891747</v>
       </c>
       <c r="E32">
-        <v>0.08983617331564624</v>
+        <v>0.01704347940360581</v>
       </c>
       <c r="F32">
-        <v>-0.06820182514428645</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0530502706138419</v>
+      </c>
+      <c r="G32">
+        <v>0.05597914314345616</v>
+      </c>
+      <c r="H32">
+        <v>-0.005744398519302145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05316895734310191</v>
+        <v>-0.04168700749071557</v>
       </c>
       <c r="C33">
-        <v>0.009878776569527219</v>
+        <v>-0.01138858845507551</v>
       </c>
       <c r="D33">
-        <v>0.05524913573206921</v>
+        <v>0.03278902427464277</v>
       </c>
       <c r="E33">
-        <v>0.06195474767623256</v>
+        <v>-0.02389848000465128</v>
       </c>
       <c r="F33">
-        <v>-0.08018440989221516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02051488191216408</v>
+      </c>
+      <c r="G33">
+        <v>0.07079516447538485</v>
+      </c>
+      <c r="H33">
+        <v>0.02712732131171153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03377417092494457</v>
+        <v>-0.02671368095617652</v>
       </c>
       <c r="C34">
-        <v>0.01905073818404815</v>
+        <v>-0.02499065809143531</v>
       </c>
       <c r="D34">
-        <v>0.01788414325755518</v>
+        <v>0.02795995976043397</v>
       </c>
       <c r="E34">
-        <v>0.03966191596682399</v>
+        <v>0.004502061637515004</v>
       </c>
       <c r="F34">
-        <v>-0.0353780753139451</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02974180302675821</v>
+      </c>
+      <c r="G34">
+        <v>0.03182605474407049</v>
+      </c>
+      <c r="H34">
+        <v>-0.008570301516035723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01263920789627179</v>
+        <v>-0.01881065046588883</v>
       </c>
       <c r="C36">
-        <v>0.009464216295644829</v>
+        <v>0.0008898174352824746</v>
       </c>
       <c r="D36">
-        <v>0.00380204872303765</v>
+        <v>-0.001369248543085761</v>
       </c>
       <c r="E36">
-        <v>0.02616820147928843</v>
+        <v>0.002818310764816445</v>
       </c>
       <c r="F36">
-        <v>-0.02439354873297408</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.007380252412719232</v>
+      </c>
+      <c r="G36">
+        <v>0.02551175742169215</v>
+      </c>
+      <c r="H36">
+        <v>0.02803409555744067</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.007002453802767127</v>
+        <v>-0.01488553132920215</v>
       </c>
       <c r="C38">
-        <v>0.003818871944415021</v>
+        <v>-0.01908966898244166</v>
       </c>
       <c r="D38">
-        <v>-0.01276935556608533</v>
+        <v>-0.0003754186223902418</v>
       </c>
       <c r="E38">
-        <v>0.004655819743859231</v>
+        <v>0.005471483201809202</v>
       </c>
       <c r="F38">
-        <v>-0.01980439588683155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01324469536762051</v>
+      </c>
+      <c r="G38">
+        <v>0.03998167719275447</v>
+      </c>
+      <c r="H38">
+        <v>0.006750940772479319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04026670073708533</v>
+        <v>-0.03047133860750946</v>
       </c>
       <c r="C39">
-        <v>0.02700172407407444</v>
+        <v>-0.01277558210116419</v>
       </c>
       <c r="D39">
-        <v>0.03513215562010435</v>
+        <v>0.06348001991796201</v>
       </c>
       <c r="E39">
-        <v>0.03893812861251224</v>
+        <v>-0.004152303565490584</v>
       </c>
       <c r="F39">
-        <v>-0.03216515565568744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05098646793012173</v>
+      </c>
+      <c r="G39">
+        <v>0.05218674185909758</v>
+      </c>
+      <c r="H39">
+        <v>-0.03194388650097035</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03797342796502978</v>
+        <v>-0.03480408446679183</v>
       </c>
       <c r="C40">
-        <v>0.04643894863192392</v>
+        <v>-0.01138345151033109</v>
       </c>
       <c r="D40">
-        <v>0.06158021493488165</v>
+        <v>0.02592645800090826</v>
       </c>
       <c r="E40">
-        <v>0.04819521400097536</v>
+        <v>-0.02201596556869055</v>
       </c>
       <c r="F40">
-        <v>-0.08474463303434211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.04534629573127755</v>
+      </c>
+      <c r="G40">
+        <v>0.06230252569019644</v>
+      </c>
+      <c r="H40">
+        <v>-0.000402472254449497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0005976215644980577</v>
+        <v>-0.007859344431416953</v>
       </c>
       <c r="C41">
-        <v>-0.003384421104057801</v>
+        <v>-0.0002257597695996581</v>
       </c>
       <c r="D41">
-        <v>0.01315442384961919</v>
+        <v>-0.004782681417774655</v>
       </c>
       <c r="E41">
-        <v>0.02504579682504446</v>
+        <v>-0.00134760206611817</v>
       </c>
       <c r="F41">
-        <v>-0.02169952242309434</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0001514502911194301</v>
+      </c>
+      <c r="G41">
+        <v>0.01344600950859503</v>
+      </c>
+      <c r="H41">
+        <v>0.03986412490559748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3946177723596086</v>
+        <v>-0.2493151494005988</v>
       </c>
       <c r="C42">
-        <v>-0.8771632661526702</v>
+        <v>0.0463919965565311</v>
       </c>
       <c r="D42">
-        <v>0.1545325401440963</v>
+        <v>0.5530220681139179</v>
       </c>
       <c r="E42">
-        <v>-0.1429819086624484</v>
+        <v>-0.1027918303759663</v>
       </c>
       <c r="F42">
-        <v>0.006402388333280515</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7739024715741235</v>
+      </c>
+      <c r="G42">
+        <v>-0.04417655777686524</v>
+      </c>
+      <c r="H42">
+        <v>-0.009225843228110512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.006449340944251376</v>
+        <v>-0.006575146775145012</v>
       </c>
       <c r="C43">
-        <v>0.0004798129052270492</v>
+        <v>0.001676434884817975</v>
       </c>
       <c r="D43">
-        <v>0.02033786030090601</v>
+        <v>-0.005595917098083555</v>
       </c>
       <c r="E43">
-        <v>0.02842166716105648</v>
+        <v>-0.005495518187454368</v>
       </c>
       <c r="F43">
-        <v>-0.03221707699538826</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.002891249098925549</v>
+      </c>
+      <c r="G43">
+        <v>0.02267394000199329</v>
+      </c>
+      <c r="H43">
+        <v>0.04463851958354512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02333360055983044</v>
+        <v>-0.01494198078465651</v>
       </c>
       <c r="C44">
-        <v>0.01185677745413127</v>
+        <v>-0.003764275159023425</v>
       </c>
       <c r="D44">
-        <v>0.03751293002452225</v>
+        <v>0.02656359850147752</v>
       </c>
       <c r="E44">
-        <v>0.06591929388378963</v>
+        <v>0.001522906426690901</v>
       </c>
       <c r="F44">
-        <v>-0.1852283956006019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01225795281262925</v>
+      </c>
+      <c r="G44">
+        <v>0.1065462368957083</v>
+      </c>
+      <c r="H44">
+        <v>0.04384131574938421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01899639363809329</v>
+        <v>-0.02242897547787992</v>
       </c>
       <c r="C46">
-        <v>0.02178980147400293</v>
+        <v>-0.003917169403018153</v>
       </c>
       <c r="D46">
-        <v>0.02917712177807632</v>
+        <v>0.0101764790694275</v>
       </c>
       <c r="E46">
-        <v>0.05218868794111807</v>
+        <v>-0.005022432147360702</v>
       </c>
       <c r="F46">
-        <v>-0.03752437840456965</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03722694732494695</v>
+      </c>
+      <c r="G46">
+        <v>0.04664184693121028</v>
+      </c>
+      <c r="H46">
+        <v>0.04806810352582443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09598785358552425</v>
+        <v>-0.07350449830374997</v>
       </c>
       <c r="C47">
-        <v>0.04034858324918922</v>
+        <v>-0.0488476913581045</v>
       </c>
       <c r="D47">
-        <v>0.0307773273055654</v>
+        <v>0.01942033959050194</v>
       </c>
       <c r="E47">
-        <v>0.04083538950261144</v>
+        <v>-0.008782251814473068</v>
       </c>
       <c r="F47">
-        <v>0.003432996071139731</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.03382953806656774</v>
+      </c>
+      <c r="G47">
+        <v>-0.01286795555250301</v>
+      </c>
+      <c r="H47">
+        <v>0.05774218521469701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01378461973734408</v>
+        <v>-0.01801043221781376</v>
       </c>
       <c r="C48">
-        <v>0.009450515772868382</v>
+        <v>-0.009815554202095718</v>
       </c>
       <c r="D48">
-        <v>0.01860579567260573</v>
+        <v>0.006761330080869578</v>
       </c>
       <c r="E48">
-        <v>0.04136779820739948</v>
+        <v>-0.001246326590362739</v>
       </c>
       <c r="F48">
-        <v>-0.04476062606496185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01444603343138122</v>
+      </c>
+      <c r="G48">
+        <v>0.03299121700843693</v>
+      </c>
+      <c r="H48">
+        <v>0.02179064150883791</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09053777396743938</v>
+        <v>-0.06910565408297345</v>
       </c>
       <c r="C50">
-        <v>0.02294071735855931</v>
+        <v>-0.04270145198593491</v>
       </c>
       <c r="D50">
-        <v>0.04391190935945525</v>
+        <v>0.03495724527308607</v>
       </c>
       <c r="E50">
-        <v>0.04286381413832941</v>
+        <v>0.00499873329347904</v>
       </c>
       <c r="F50">
-        <v>-0.007043099074629434</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02989842074625458</v>
+      </c>
+      <c r="G50">
+        <v>0.01605927323706473</v>
+      </c>
+      <c r="H50">
+        <v>0.05651994920103095</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04766123309038556</v>
+        <v>-0.02818266550680823</v>
       </c>
       <c r="C51">
-        <v>0.003111969403133656</v>
+        <v>-0.00708698376817357</v>
       </c>
       <c r="D51">
-        <v>0.04889344849277386</v>
+        <v>-0.0008792787507094795</v>
       </c>
       <c r="E51">
-        <v>0.01338684109127405</v>
+        <v>-0.01362018143483504</v>
       </c>
       <c r="F51">
-        <v>-0.1594806107032289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01105540039728956</v>
+      </c>
+      <c r="G51">
+        <v>0.1016225091099991</v>
+      </c>
+      <c r="H51">
+        <v>0.02292900759943999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1120585716080516</v>
+        <v>-0.09680787979902515</v>
       </c>
       <c r="C53">
-        <v>0.0447936768352813</v>
+        <v>-0.06296175197881759</v>
       </c>
       <c r="D53">
-        <v>0.05311177096947114</v>
+        <v>0.04549892630710552</v>
       </c>
       <c r="E53">
-        <v>0.05044229970124174</v>
+        <v>-0.008479062984611338</v>
       </c>
       <c r="F53">
-        <v>0.06825360970807719</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05728579080638908</v>
+      </c>
+      <c r="G53">
+        <v>-0.06255573797786655</v>
+      </c>
+      <c r="H53">
+        <v>0.03978161075393074</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02558269526187751</v>
+        <v>-0.02325579375645934</v>
       </c>
       <c r="C54">
-        <v>0.04027437471589303</v>
+        <v>-0.01916868092661975</v>
       </c>
       <c r="D54">
-        <v>0.01010910795680764</v>
+        <v>-0.02164579595527451</v>
       </c>
       <c r="E54">
-        <v>0.03184456965319489</v>
+        <v>0.002129233466674854</v>
       </c>
       <c r="F54">
-        <v>-0.06465101520206139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01932077440076178</v>
+      </c>
+      <c r="G54">
+        <v>0.0461133593424195</v>
+      </c>
+      <c r="H54">
+        <v>0.06393453489012516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1055863659210699</v>
+        <v>-0.08240245903906612</v>
       </c>
       <c r="C55">
-        <v>0.03207390306077794</v>
+        <v>-0.05446580388970899</v>
       </c>
       <c r="D55">
-        <v>0.003375905812100778</v>
+        <v>0.04209833963696708</v>
       </c>
       <c r="E55">
-        <v>0.04988379067645806</v>
+        <v>0.005670384721681649</v>
       </c>
       <c r="F55">
-        <v>0.06021718708405037</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04706364580234452</v>
+      </c>
+      <c r="G55">
+        <v>-0.04916667288902803</v>
+      </c>
+      <c r="H55">
+        <v>0.04847233665485495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1456944159728562</v>
+        <v>-0.1245967704201453</v>
       </c>
       <c r="C56">
-        <v>0.07776131671157079</v>
+        <v>-0.08860124297921196</v>
       </c>
       <c r="D56">
-        <v>0.02802653077614998</v>
+        <v>0.0544705383529784</v>
       </c>
       <c r="E56">
-        <v>0.05927095384701247</v>
+        <v>-0.003783649157673127</v>
       </c>
       <c r="F56">
-        <v>0.159065251951059</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08251059630041803</v>
+      </c>
+      <c r="G56">
+        <v>-0.1066878583688921</v>
+      </c>
+      <c r="H56">
+        <v>0.01509918540339847</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04789317288375042</v>
+        <v>-0.04357743142300235</v>
       </c>
       <c r="C57">
-        <v>0.02439451725297771</v>
+        <v>-0.0008727704393043782</v>
       </c>
       <c r="D57">
-        <v>0.04119580801219594</v>
+        <v>0.02588135689945529</v>
       </c>
       <c r="E57">
-        <v>0.03258817360303144</v>
+        <v>-0.01233303557685699</v>
       </c>
       <c r="F57">
-        <v>-0.07862451965652562</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03533865447887465</v>
+      </c>
+      <c r="G57">
+        <v>0.06759548186632065</v>
+      </c>
+      <c r="H57">
+        <v>-0.001081245443379796</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2173228728305421</v>
+        <v>-0.1417785295690159</v>
       </c>
       <c r="C58">
-        <v>0.07506170118068593</v>
+        <v>-0.07648874570595655</v>
       </c>
       <c r="D58">
-        <v>0.1280923109919877</v>
+        <v>0.1060015173279882</v>
       </c>
       <c r="E58">
-        <v>0.1289517423057056</v>
+        <v>-0.1071266476336431</v>
       </c>
       <c r="F58">
-        <v>-0.2573348821311697</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.07918378680300477</v>
+      </c>
+      <c r="G58">
+        <v>0.5011047684278419</v>
+      </c>
+      <c r="H58">
+        <v>0.4985798927345528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.06403804789813559</v>
+        <v>-0.105690462955903</v>
       </c>
       <c r="C59">
-        <v>0.08370813722230039</v>
+        <v>-0.04824044168126993</v>
       </c>
       <c r="D59">
-        <v>-0.07145575891570109</v>
+        <v>-0.2198843168738052</v>
       </c>
       <c r="E59">
-        <v>-0.1555711414779084</v>
+        <v>-0.03360765095901306</v>
       </c>
       <c r="F59">
-        <v>-0.06104174009937798</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.08954144718672602</v>
+      </c>
+      <c r="G59">
+        <v>0.04332143564184037</v>
+      </c>
+      <c r="H59">
+        <v>0.006702843623845441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1613190122247744</v>
+        <v>-0.1653042383803551</v>
       </c>
       <c r="C60">
-        <v>0.08263157068415682</v>
+        <v>-0.07731343203623389</v>
       </c>
       <c r="D60">
-        <v>0.04850681737331698</v>
+        <v>-0.00862537032726726</v>
       </c>
       <c r="E60">
-        <v>-0.03196112164120969</v>
+        <v>-0.05901479007673532</v>
       </c>
       <c r="F60">
-        <v>-0.08951603376152739</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.06318530686518399</v>
+      </c>
+      <c r="G60">
+        <v>0.1688066675655087</v>
+      </c>
+      <c r="H60">
+        <v>-0.3608925181060451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02281103694428758</v>
+        <v>-0.02528268306541288</v>
       </c>
       <c r="C61">
-        <v>0.01458041009829068</v>
+        <v>-0.01462692898197961</v>
       </c>
       <c r="D61">
-        <v>0.01125177741405013</v>
+        <v>0.03490837897026614</v>
       </c>
       <c r="E61">
-        <v>0.03116164971557531</v>
+        <v>0.001444641161477374</v>
       </c>
       <c r="F61">
-        <v>-0.02977194206404481</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0361663467926313</v>
+      </c>
+      <c r="G61">
+        <v>0.03472625286305864</v>
+      </c>
+      <c r="H61">
+        <v>-0.02515013761283086</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02195527950569769</v>
+        <v>-0.01750110980082567</v>
       </c>
       <c r="C63">
-        <v>0.02272034486750706</v>
+        <v>-0.004204883530715266</v>
       </c>
       <c r="D63">
-        <v>0.02569518289817356</v>
+        <v>0.01093589042518792</v>
       </c>
       <c r="E63">
-        <v>0.04780401544780924</v>
+        <v>-0.0002058695077542401</v>
       </c>
       <c r="F63">
-        <v>-0.01955203860862546</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02803118592082279</v>
+      </c>
+      <c r="G63">
+        <v>0.02487318803597835</v>
+      </c>
+      <c r="H63">
+        <v>0.0391042060347618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05104902034037599</v>
+        <v>-0.04777050877978029</v>
       </c>
       <c r="C64">
-        <v>0.02211271868340181</v>
+        <v>-0.02494643007179717</v>
       </c>
       <c r="D64">
-        <v>0.0147112751457483</v>
+        <v>0.04204630769452987</v>
       </c>
       <c r="E64">
-        <v>0.08872254616850436</v>
+        <v>0.007782351598400128</v>
       </c>
       <c r="F64">
-        <v>-0.04748932248362984</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03689215844843912</v>
+      </c>
+      <c r="G64">
+        <v>0.03260276475615635</v>
+      </c>
+      <c r="H64">
+        <v>0.001356596911036134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.008550670378926812</v>
+        <v>-0.03756241051901979</v>
       </c>
       <c r="C65">
-        <v>0.0005414318905604714</v>
+        <v>-0.005594321120961962</v>
       </c>
       <c r="D65">
-        <v>0.006318500008424489</v>
+        <v>0.0325097069866198</v>
       </c>
       <c r="E65">
-        <v>-0.0037190919408593</v>
+        <v>0.002632421237971252</v>
       </c>
       <c r="F65">
-        <v>-0.003442383935543284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03081553613749814</v>
+      </c>
+      <c r="G65">
+        <v>0.005982672430653083</v>
+      </c>
+      <c r="H65">
+        <v>-0.05702669189577645</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04423738977030906</v>
+        <v>-0.03859191466766163</v>
       </c>
       <c r="C66">
-        <v>0.03759428762953645</v>
+        <v>-0.021213973957014</v>
       </c>
       <c r="D66">
-        <v>0.03740293838435922</v>
+        <v>0.07218464286673688</v>
       </c>
       <c r="E66">
-        <v>0.06110859274213092</v>
+        <v>-0.01167497369061095</v>
       </c>
       <c r="F66">
-        <v>-0.03737506122466162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07493268735884449</v>
+      </c>
+      <c r="G66">
+        <v>0.05069439689995132</v>
+      </c>
+      <c r="H66">
+        <v>-0.0444963023461604</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02714220762331147</v>
+        <v>-0.03406297274727862</v>
       </c>
       <c r="C67">
-        <v>0.01204686968592636</v>
+        <v>-0.02625356875417408</v>
       </c>
       <c r="D67">
-        <v>-0.01523982447761215</v>
+        <v>-0.009671028672689555</v>
       </c>
       <c r="E67">
-        <v>-0.01441847096990448</v>
+        <v>0.0001593961237341164</v>
       </c>
       <c r="F67">
-        <v>-0.0302559963909602</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01315268248984328</v>
+      </c>
+      <c r="G67">
+        <v>0.03295668237755348</v>
+      </c>
+      <c r="H67">
+        <v>-0.0121228866517646</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06439434574417878</v>
+        <v>-0.1045400952581056</v>
       </c>
       <c r="C68">
-        <v>0.06867528531535647</v>
+        <v>-0.02364873050617333</v>
       </c>
       <c r="D68">
-        <v>-0.1033570441098675</v>
+        <v>-0.2171434147767046</v>
       </c>
       <c r="E68">
-        <v>-0.2120662533231353</v>
+        <v>-0.0256998222517615</v>
       </c>
       <c r="F68">
-        <v>-0.03835750499687911</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.111651546084377</v>
+      </c>
+      <c r="G68">
+        <v>0.01794081983404294</v>
+      </c>
+      <c r="H68">
+        <v>0.05215887755390883</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07081610740532579</v>
+        <v>-0.05765731419890922</v>
       </c>
       <c r="C69">
-        <v>0.03967332604313033</v>
+        <v>-0.04328387478903186</v>
       </c>
       <c r="D69">
-        <v>0.02344686053493572</v>
+        <v>0.01390574877486012</v>
       </c>
       <c r="E69">
-        <v>0.004830607879731542</v>
+        <v>-0.008784729352050262</v>
       </c>
       <c r="F69">
-        <v>-0.01052389948646245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02938591867093329</v>
+      </c>
+      <c r="G69">
+        <v>-0.000776158520604209</v>
+      </c>
+      <c r="H69">
+        <v>0.03519036022381417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08399768095986981</v>
+        <v>-0.1035213202276429</v>
       </c>
       <c r="C71">
-        <v>0.06540632679547846</v>
+        <v>-0.03389316097474729</v>
       </c>
       <c r="D71">
-        <v>-0.08455742144624083</v>
+        <v>-0.2001921262217063</v>
       </c>
       <c r="E71">
-        <v>-0.2512778174941417</v>
+        <v>-0.03113047064601726</v>
       </c>
       <c r="F71">
-        <v>-0.07015818887721093</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1217245670700163</v>
+      </c>
+      <c r="G71">
+        <v>0.0310624492261144</v>
+      </c>
+      <c r="H71">
+        <v>0.03698268118932496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1066740603189995</v>
+        <v>-0.09035176752292061</v>
       </c>
       <c r="C72">
-        <v>0.1173503201714889</v>
+        <v>-0.06839737711639476</v>
       </c>
       <c r="D72">
-        <v>0.02246444886196227</v>
+        <v>0.04615368115776627</v>
       </c>
       <c r="E72">
-        <v>0.05313002742515726</v>
+        <v>-0.01700915026451665</v>
       </c>
       <c r="F72">
-        <v>-0.04560108123796679</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1148999872516164</v>
+      </c>
+      <c r="G72">
+        <v>0.09907173199061686</v>
+      </c>
+      <c r="H72">
+        <v>-0.1333688156505987</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2353865125402548</v>
+        <v>-0.2326046576919386</v>
       </c>
       <c r="C73">
-        <v>0.1119662245622627</v>
+        <v>-0.1031981428985977</v>
       </c>
       <c r="D73">
-        <v>0.02593969868898884</v>
+        <v>0.01019734537244169</v>
       </c>
       <c r="E73">
-        <v>-0.09129247667132132</v>
+        <v>-0.0943478896865185</v>
       </c>
       <c r="F73">
-        <v>-0.1795282075440236</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06604924014589576</v>
+      </c>
+      <c r="G73">
+        <v>0.2458491317178812</v>
+      </c>
+      <c r="H73">
+        <v>-0.5237661430327268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1253259386558054</v>
+        <v>-0.1109799160732345</v>
       </c>
       <c r="C74">
-        <v>0.04254009163158813</v>
+        <v>-0.07799811725150294</v>
       </c>
       <c r="D74">
-        <v>0.02728357528980904</v>
+        <v>0.05152211744235072</v>
       </c>
       <c r="E74">
-        <v>0.02630478901215619</v>
+        <v>-0.01087294090068325</v>
       </c>
       <c r="F74">
-        <v>0.1141135932771123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06424728962998619</v>
+      </c>
+      <c r="G74">
+        <v>-0.08894756410650456</v>
+      </c>
+      <c r="H74">
+        <v>-0.005553358824892876</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.22931186937464</v>
+        <v>-0.2190283944869517</v>
       </c>
       <c r="C75">
-        <v>0.1141783906048885</v>
+        <v>-0.1559657036860985</v>
       </c>
       <c r="D75">
-        <v>0.06697076144242572</v>
+        <v>0.05919785328682593</v>
       </c>
       <c r="E75">
-        <v>0.03733807402384033</v>
+        <v>-0.03705210525073523</v>
       </c>
       <c r="F75">
-        <v>0.1721714439141724</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1230530836456906</v>
+      </c>
+      <c r="G75">
+        <v>-0.1810940448707992</v>
+      </c>
+      <c r="H75">
+        <v>0.05540515703893986</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2608816920223096</v>
+        <v>-0.2097566748870854</v>
       </c>
       <c r="C76">
-        <v>0.1359651683722177</v>
+        <v>-0.153573549368133</v>
       </c>
       <c r="D76">
-        <v>0.006320717960289097</v>
+        <v>0.05796553932430908</v>
       </c>
       <c r="E76">
-        <v>0.05170920170708116</v>
+        <v>0.00475150804882308</v>
       </c>
       <c r="F76">
-        <v>0.1994626711920811</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1321759545837023</v>
+      </c>
+      <c r="G76">
+        <v>-0.1958238823348452</v>
+      </c>
+      <c r="H76">
+        <v>0.06760923520128802</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1394859864370936</v>
+        <v>-0.08078796836744025</v>
       </c>
       <c r="C77">
-        <v>-0.007614797328397276</v>
+        <v>-0.03013702940074763</v>
       </c>
       <c r="D77">
-        <v>0.06801465437495639</v>
+        <v>0.07302962239889289</v>
       </c>
       <c r="E77">
-        <v>0.06384880648339358</v>
+        <v>-0.01416587650214968</v>
       </c>
       <c r="F77">
-        <v>-0.2207772896128145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.007393450224867031</v>
+      </c>
+      <c r="G77">
+        <v>0.1395971567697822</v>
+      </c>
+      <c r="H77">
+        <v>0.1573297762337555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05645104284981606</v>
+        <v>-0.04160080334015798</v>
       </c>
       <c r="C78">
-        <v>0.01642267487180427</v>
+        <v>-0.02224023632897954</v>
       </c>
       <c r="D78">
-        <v>0.03986408514324693</v>
+        <v>0.05221954586842529</v>
       </c>
       <c r="E78">
-        <v>0.08838886878346554</v>
+        <v>0.001189898682736544</v>
       </c>
       <c r="F78">
-        <v>-0.02654546939898681</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04675725992006826</v>
+      </c>
+      <c r="G78">
+        <v>0.06043554198349719</v>
+      </c>
+      <c r="H78">
+        <v>0.006688546606951588</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1879933112897201</v>
+        <v>-0.1736784483408896</v>
       </c>
       <c r="C80">
-        <v>-0.1447004989551353</v>
+        <v>-0.09001136628468126</v>
       </c>
       <c r="D80">
-        <v>-0.8671332671756686</v>
+        <v>0.004690466591298919</v>
       </c>
       <c r="E80">
-        <v>0.4067192482952869</v>
+        <v>0.9634829825055476</v>
       </c>
       <c r="F80">
-        <v>-0.04546920379967374</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.08700747412597702</v>
+      </c>
+      <c r="G80">
+        <v>0.09113570463381582</v>
+      </c>
+      <c r="H80">
+        <v>-0.0200501661511755</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1593842059201824</v>
+        <v>-0.1490927718732628</v>
       </c>
       <c r="C81">
-        <v>0.1015544150677497</v>
+        <v>-0.1064964753908824</v>
       </c>
       <c r="D81">
-        <v>0.02744471209620622</v>
+        <v>0.03794800650782831</v>
       </c>
       <c r="E81">
-        <v>0.03483318309003603</v>
+        <v>-0.01061408039732319</v>
       </c>
       <c r="F81">
-        <v>0.1999517736193672</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09372991166756893</v>
+      </c>
+      <c r="G81">
+        <v>-0.1372860334214652</v>
+      </c>
+      <c r="H81">
+        <v>0.05718526579390027</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05841578926278121</v>
+        <v>-0.04175387830235208</v>
       </c>
       <c r="C83">
-        <v>-0.005325009631075441</v>
+        <v>-0.01850899862582153</v>
       </c>
       <c r="D83">
-        <v>0.04685985367927392</v>
+        <v>0.02672937264326036</v>
       </c>
       <c r="E83">
-        <v>0.04103352197419398</v>
+        <v>-0.01440718725883531</v>
       </c>
       <c r="F83">
-        <v>-0.07497057248286913</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01586627379188722</v>
+      </c>
+      <c r="G83">
+        <v>0.06525088473367807</v>
+      </c>
+      <c r="H83">
+        <v>0.01223519572977336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2332088597333951</v>
+        <v>-0.2106478825214523</v>
       </c>
       <c r="C85">
-        <v>0.09643504910885115</v>
+        <v>-0.1360238654922129</v>
       </c>
       <c r="D85">
-        <v>0.03309458814571404</v>
+        <v>0.07660950540725728</v>
       </c>
       <c r="E85">
-        <v>0.03148385437134561</v>
+        <v>-0.02561193009173039</v>
       </c>
       <c r="F85">
-        <v>0.1902948260776352</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1130054063151563</v>
+      </c>
+      <c r="G85">
+        <v>-0.178071186078795</v>
+      </c>
+      <c r="H85">
+        <v>0.0333747936719749</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01068507734814132</v>
+        <v>-0.01145942160151689</v>
       </c>
       <c r="C86">
-        <v>8.354813671662594e-06</v>
+        <v>-0.0005439257918813361</v>
       </c>
       <c r="D86">
-        <v>0.02473748097958858</v>
+        <v>0.02280428888213248</v>
       </c>
       <c r="E86">
-        <v>0.08161054037464716</v>
+        <v>-0.007138505066721494</v>
       </c>
       <c r="F86">
-        <v>-0.08239566310196268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.0188506600044838</v>
+      </c>
+      <c r="G86">
+        <v>0.09758552778256484</v>
+      </c>
+      <c r="H86">
+        <v>0.01406500824558743</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.01983897675346978</v>
+        <v>-0.02532496494336264</v>
       </c>
       <c r="C87">
-        <v>0.02099013573401774</v>
+        <v>-0.007738780702938371</v>
       </c>
       <c r="D87">
-        <v>-0.004407555386016078</v>
+        <v>0.01288456238538328</v>
       </c>
       <c r="E87">
-        <v>-0.001689868178674729</v>
+        <v>0.0004824374488426344</v>
       </c>
       <c r="F87">
-        <v>-0.08088009254221808</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01746476036789284</v>
+      </c>
+      <c r="G87">
+        <v>0.0900821111162957</v>
+      </c>
+      <c r="H87">
+        <v>-0.001384684342421095</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01153951599426956</v>
+        <v>-0.03951389725475131</v>
       </c>
       <c r="C88">
-        <v>0.0206165857435302</v>
+        <v>0.001870988850558356</v>
       </c>
       <c r="D88">
-        <v>-0.01491590553370704</v>
+        <v>-0.01193220604045591</v>
       </c>
       <c r="E88">
-        <v>0.009751136517525868</v>
+        <v>0.004440950339374442</v>
       </c>
       <c r="F88">
-        <v>-0.03813720928778445</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01511032863975352</v>
+      </c>
+      <c r="G88">
+        <v>0.009347683035439992</v>
+      </c>
+      <c r="H88">
+        <v>0.007170527837815365</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09800438352948916</v>
+        <v>-0.1646296771277214</v>
       </c>
       <c r="C89">
-        <v>0.08372608358435799</v>
+        <v>-0.04948901525508706</v>
       </c>
       <c r="D89">
-        <v>-0.1042033389507174</v>
+        <v>-0.3414507375073551</v>
       </c>
       <c r="E89">
-        <v>-0.3141128189665691</v>
+        <v>-0.06818397760260918</v>
       </c>
       <c r="F89">
-        <v>-0.1273429007199926</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1735558775340348</v>
+      </c>
+      <c r="G89">
+        <v>0.02914122708623938</v>
+      </c>
+      <c r="H89">
+        <v>0.04274324827405675</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09291582815676573</v>
+        <v>-0.1287784319708421</v>
       </c>
       <c r="C90">
-        <v>0.07933589922341003</v>
+        <v>-0.0384835012814223</v>
       </c>
       <c r="D90">
-        <v>-0.1503922978420312</v>
+        <v>-0.2943777544185028</v>
       </c>
       <c r="E90">
-        <v>-0.2731589928793564</v>
+        <v>-0.03872576445220718</v>
       </c>
       <c r="F90">
-        <v>-0.07279521335312818</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1621627830563999</v>
+      </c>
+      <c r="G90">
+        <v>-0.01557043031622483</v>
+      </c>
+      <c r="H90">
+        <v>0.05149798450574471</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2929663196598661</v>
+        <v>-0.2331486033763424</v>
       </c>
       <c r="C91">
-        <v>0.09954656844104517</v>
+        <v>-0.1621322748816113</v>
       </c>
       <c r="D91">
-        <v>0.04479261485161593</v>
+        <v>0.06939462726112071</v>
       </c>
       <c r="E91">
-        <v>-0.01225145785525915</v>
+        <v>-0.03234868282066847</v>
       </c>
       <c r="F91">
-        <v>0.2421030927676361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1098143313506849</v>
+      </c>
+      <c r="G91">
+        <v>-0.2426764462470657</v>
+      </c>
+      <c r="H91">
+        <v>0.07479997303752391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.133576579334531</v>
+        <v>-0.1842957263966417</v>
       </c>
       <c r="C92">
-        <v>0.0637142229870537</v>
+        <v>-0.119863045248544</v>
       </c>
       <c r="D92">
-        <v>-0.1598978072197439</v>
+        <v>-0.2743730242835812</v>
       </c>
       <c r="E92">
-        <v>-0.2825228278000354</v>
+        <v>-0.02770836613347212</v>
       </c>
       <c r="F92">
-        <v>-0.1079058483957964</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1430772726861094</v>
+      </c>
+      <c r="G92">
+        <v>-0.03537940777246691</v>
+      </c>
+      <c r="H92">
+        <v>0.116649408334847</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09573871215184382</v>
+        <v>-0.1474631154140336</v>
       </c>
       <c r="C93">
-        <v>0.05953873114494258</v>
+        <v>-0.05048601441842993</v>
       </c>
       <c r="D93">
-        <v>-0.1767920296927785</v>
+        <v>-0.3236112557764307</v>
       </c>
       <c r="E93">
-        <v>-0.3782287418867276</v>
+        <v>-0.05735933392235598</v>
       </c>
       <c r="F93">
-        <v>-0.06023106420592301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.2087127485417827</v>
+      </c>
+      <c r="G93">
+        <v>-0.005181319623824382</v>
+      </c>
+      <c r="H93">
+        <v>-0.02775913590049099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2604304401795331</v>
+        <v>-0.2516251121162899</v>
       </c>
       <c r="C94">
-        <v>0.1274327279049809</v>
+        <v>-0.153539576966586</v>
       </c>
       <c r="D94">
-        <v>0.006679201409606116</v>
+        <v>0.041332397840831</v>
       </c>
       <c r="E94">
-        <v>0.006885013565960925</v>
+        <v>-0.04520210939278348</v>
       </c>
       <c r="F94">
-        <v>0.3289272406676352</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1217921445099688</v>
+      </c>
+      <c r="G94">
+        <v>-0.2709905989393147</v>
+      </c>
+      <c r="H94">
+        <v>0.08438668276277175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1107768371295284</v>
+        <v>-0.07381731286100783</v>
       </c>
       <c r="C95">
-        <v>0.01968977997072172</v>
+        <v>-0.05485370798915846</v>
       </c>
       <c r="D95">
-        <v>0.1087746861098233</v>
+        <v>0.07955234125804934</v>
       </c>
       <c r="E95">
-        <v>0.1001590774026114</v>
+        <v>-0.07758264257602836</v>
       </c>
       <c r="F95">
-        <v>-0.07229064887458293</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03606387897565458</v>
+      </c>
+      <c r="G95">
+        <v>0.09154767535064974</v>
+      </c>
+      <c r="H95">
+        <v>0.03576358510970986</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1838244943412367</v>
+        <v>-0.167953360689956</v>
       </c>
       <c r="C98">
-        <v>0.05491021618667859</v>
+        <v>-0.1072867385946466</v>
       </c>
       <c r="D98">
-        <v>0.02608537479700631</v>
+        <v>0.01015949222979803</v>
       </c>
       <c r="E98">
-        <v>-0.08929398104407789</v>
+        <v>-0.06405047737218013</v>
       </c>
       <c r="F98">
-        <v>-0.08016002779803566</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02097997079136774</v>
+      </c>
+      <c r="G98">
+        <v>0.1914172773949616</v>
+      </c>
+      <c r="H98">
+        <v>-0.403608527208533</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.008579486494780745</v>
+        <v>-0.01574188708107584</v>
       </c>
       <c r="C101">
-        <v>0.02942896386210333</v>
+        <v>-0.004530514298287328</v>
       </c>
       <c r="D101">
-        <v>0.03516138135448346</v>
+        <v>0.007558094896469068</v>
       </c>
       <c r="E101">
-        <v>0.1019821338918905</v>
+        <v>0.003397798062879362</v>
       </c>
       <c r="F101">
-        <v>-0.1371013642782359</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04138646888712326</v>
+      </c>
+      <c r="G101">
+        <v>0.08424994880231451</v>
+      </c>
+      <c r="H101">
+        <v>0.1123763622086188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1034154276242531</v>
+        <v>-0.1086605406334411</v>
       </c>
       <c r="C102">
-        <v>0.03448328750230234</v>
+        <v>-0.06298113679698714</v>
       </c>
       <c r="D102">
-        <v>0.02476010549396391</v>
+        <v>0.04406594905503701</v>
       </c>
       <c r="E102">
-        <v>0.06704137013374714</v>
+        <v>-0.005037379406479863</v>
       </c>
       <c r="F102">
-        <v>0.1329413808328903</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06653708328351941</v>
+      </c>
+      <c r="G102">
+        <v>-0.1166908228234649</v>
+      </c>
+      <c r="H102">
+        <v>0.03750798083382576</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02699630183159858</v>
+        <v>-0.02306793186282294</v>
       </c>
       <c r="C103">
-        <v>0.008646640296811701</v>
+        <v>-0.0142540288644469</v>
       </c>
       <c r="D103">
-        <v>0.006526479982572172</v>
+        <v>0.01068979355969847</v>
       </c>
       <c r="E103">
-        <v>0.003221873587059015</v>
+        <v>0.005943797808727933</v>
       </c>
       <c r="F103">
-        <v>0.02949092749110768</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01405329468257921</v>
+      </c>
+      <c r="G103">
+        <v>-0.01249343511998576</v>
+      </c>
+      <c r="H103">
+        <v>0.01473711890590196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.4562969145634814</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8664752049310156</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.04215988683358171</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.01794834249917238</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1640838427288059</v>
+      </c>
+      <c r="G104">
+        <v>-0.05456604612477762</v>
+      </c>
+      <c r="H104">
+        <v>0.01030420250174606</v>
       </c>
     </row>
   </sheetData>
